--- a/Annotations/New/HarryPotter.xlsx
+++ b/Annotations/New/HarryPotter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\New\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="HarryPotterV2" sheetId="1" r:id="rId1"/>
@@ -1983,14 +1983,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P338"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L239" sqref="L239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="53.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="53.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="53.44140625" style="2" customWidth="1"/>
@@ -2052,7 +2053,7 @@
     <row r="2" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.96856041833880879</v>
+        <v>0.59672151025259956</v>
       </c>
       <c r="B2" s="2">
         <v>331</v>
@@ -2076,7 +2077,7 @@
     <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50417532657483344</v>
+        <v>0.23985705182032513</v>
       </c>
       <c r="B3" s="2">
         <v>289</v>
@@ -2103,7 +2104,7 @@
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41622169088857253</v>
+        <v>0.70958954705493371</v>
       </c>
       <c r="B4" s="2">
         <v>96</v>
@@ -2127,7 +2128,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95792582544572924</v>
+        <v>0.69410282036569626</v>
       </c>
       <c r="B5" s="2">
         <v>126</v>
@@ -2151,7 +2152,7 @@
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79834176455946648</v>
+        <v>0.5081401667073715</v>
       </c>
       <c r="B6" s="2">
         <v>226</v>
@@ -2175,7 +2176,7 @@
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41116393370414717</v>
+        <v>0.35266631616212651</v>
       </c>
       <c r="B7" s="2">
         <v>238</v>
@@ -2199,7 +2200,7 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47007029559947522</v>
+        <v>0.4765889771708488</v>
       </c>
       <c r="B8" s="2">
         <v>302</v>
@@ -2223,7 +2224,7 @@
     <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57209522106732424</v>
+        <v>5.5875887587494288E-3</v>
       </c>
       <c r="B9" s="2">
         <v>63</v>
@@ -2247,7 +2248,7 @@
     <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15027420021547166</v>
+        <v>0.32942465199036297</v>
       </c>
       <c r="B10" s="2">
         <v>138</v>
@@ -2271,7 +2272,7 @@
     <row r="11" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44995966919152508</v>
+        <v>0.65437690326702525</v>
       </c>
       <c r="B11" s="2">
         <v>332</v>
@@ -2295,7 +2296,7 @@
     <row r="12" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32438433466816119</v>
+        <v>0.83234868158330677</v>
       </c>
       <c r="B12" s="2">
         <v>321</v>
@@ -2319,7 +2320,7 @@
     <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67775021742271147</v>
+        <v>0.35552502479646853</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
@@ -2343,7 +2344,7 @@
     <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80991092433991041</v>
+        <v>0.85393150997259237</v>
       </c>
       <c r="B14" s="2">
         <v>257</v>
@@ -2367,7 +2368,7 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10117521368639981</v>
+        <v>0.95231951670480131</v>
       </c>
       <c r="B15" s="2">
         <v>128</v>
@@ -2391,7 +2392,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.591987225061203E-2</v>
+        <v>0.25566130025840128</v>
       </c>
       <c r="B16" s="2">
         <v>8</v>
@@ -2418,7 +2419,7 @@
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17437770906023253</v>
+        <v>4.9559151633065568E-2</v>
       </c>
       <c r="B17" s="2">
         <v>199</v>
@@ -2442,7 +2443,7 @@
     <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82604919295021884</v>
+        <v>0.8745907387411298</v>
       </c>
       <c r="B18" s="2">
         <v>103</v>
@@ -2466,7 +2467,7 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86551796488380695</v>
+        <v>0.21078960660315971</v>
       </c>
       <c r="B19" s="2">
         <v>300</v>
@@ -2490,7 +2491,7 @@
     <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63073733145321209</v>
+        <v>0.37039188359268593</v>
       </c>
       <c r="B20" s="2">
         <v>68</v>
@@ -2514,7 +2515,7 @@
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93727232217376011</v>
+        <v>0.49318136661245682</v>
       </c>
       <c r="B21" s="2">
         <v>94</v>
@@ -2535,7 +2536,7 @@
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56514078051991878</v>
+        <v>0.32601348069745417</v>
       </c>
       <c r="B22" s="2">
         <v>51</v>
@@ -2559,7 +2560,7 @@
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49822887478731059</v>
+        <v>0.48160501346257456</v>
       </c>
       <c r="B23" s="2">
         <v>229</v>
@@ -2583,7 +2584,7 @@
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8019417280444388E-2</v>
+        <v>0.30799010139819405</v>
       </c>
       <c r="B24" s="2">
         <v>107</v>
@@ -2604,7 +2605,7 @@
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88978381326147549</v>
+        <v>0.71767446804617097</v>
       </c>
       <c r="B25" s="2">
         <v>75</v>
@@ -2628,7 +2629,7 @@
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21245426623895214</v>
+        <v>0.84108975355569604</v>
       </c>
       <c r="B26" s="2">
         <v>314</v>
@@ -2652,7 +2653,7 @@
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67960506821979194</v>
+        <v>0.71633264741499425</v>
       </c>
       <c r="B27" s="2">
         <v>297</v>
@@ -2676,7 +2677,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87807672618054322</v>
+        <v>0.6477994328263541</v>
       </c>
       <c r="B28" s="2">
         <v>294</v>
@@ -2706,7 +2707,7 @@
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9143699422128273</v>
+        <v>0.76591122962775704</v>
       </c>
       <c r="B29" s="2">
         <v>31</v>
@@ -2727,7 +2728,7 @@
     <row r="30" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60691066517870229</v>
+        <v>0.35972327616269317</v>
       </c>
       <c r="B30" s="2">
         <v>268</v>
@@ -2751,7 +2752,7 @@
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81834411077595903</v>
+        <v>7.2605847112399258E-2</v>
       </c>
       <c r="B31" s="2">
         <v>251</v>
@@ -2775,7 +2776,7 @@
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5752021296836616E-2</v>
+        <v>0.93201183681357358</v>
       </c>
       <c r="B32" s="2">
         <v>191</v>
@@ -2802,7 +2803,7 @@
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52562243007742648</v>
+        <v>0.34452720139314241</v>
       </c>
       <c r="B33" s="2">
         <v>279</v>
@@ -2829,7 +2830,7 @@
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11069931308607195</v>
+        <v>0.92514851965390843</v>
       </c>
       <c r="B34" s="2">
         <v>185</v>
@@ -2853,7 +2854,7 @@
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57197795194448708</v>
+        <v>0.12688177725084793</v>
       </c>
       <c r="B35" s="2">
         <v>169</v>
@@ -2877,7 +2878,7 @@
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97819511436111695</v>
+        <v>0.15052190159328005</v>
       </c>
       <c r="B36" s="2">
         <v>95</v>
@@ -2898,7 +2899,7 @@
     <row r="37" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92090087343581972</v>
+        <v>0.63869850051300536</v>
       </c>
       <c r="B37" s="2">
         <v>164</v>
@@ -2922,7 +2923,7 @@
     <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3969898122272002</v>
+        <v>0.87910727769511832</v>
       </c>
       <c r="B38" s="2">
         <v>77</v>
@@ -2946,7 +2947,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60732854031916705</v>
+        <v>0.89086634235528561</v>
       </c>
       <c r="B39" s="2">
         <v>84</v>
@@ -2970,7 +2971,7 @@
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99136211759050696</v>
+        <v>0.90475024476059007</v>
       </c>
       <c r="B40" s="2">
         <v>292</v>
@@ -2994,7 +2995,7 @@
     <row r="41" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83766800854206636</v>
+        <v>0.50889348714317073</v>
       </c>
       <c r="B41" s="2">
         <v>7</v>
@@ -3015,7 +3016,7 @@
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85254147032726713</v>
+        <v>0.47128438713829846</v>
       </c>
       <c r="B42" s="2">
         <v>326</v>
@@ -3039,7 +3040,7 @@
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64929541702651927</v>
+        <v>0.477186229415414</v>
       </c>
       <c r="B43" s="2">
         <v>70</v>
@@ -3063,7 +3064,7 @@
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31375889627085041</v>
+        <v>0.95223818445188102</v>
       </c>
       <c r="B44" s="2">
         <v>217</v>
@@ -3090,7 +3091,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78766388196366011</v>
+        <v>0.59705105505262035</v>
       </c>
       <c r="B45" s="2">
         <v>265</v>
@@ -3111,7 +3112,7 @@
     <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51407826987145944</v>
+        <v>0.42932294736151899</v>
       </c>
       <c r="B46" s="2">
         <v>143</v>
@@ -3135,7 +3136,7 @@
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34575381734608523</v>
+        <v>0.78072853515587037</v>
       </c>
       <c r="B47" s="2">
         <v>157</v>
@@ -3159,7 +3160,7 @@
     <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29296085223355939</v>
+        <v>0.64106990978010592</v>
       </c>
       <c r="B48" s="2">
         <v>324</v>
@@ -3186,7 +3187,7 @@
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61919181593397721</v>
+        <v>0.12240585676767746</v>
       </c>
       <c r="B49" s="2">
         <v>18</v>
@@ -3210,7 +3211,7 @@
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57020171606368286</v>
+        <v>0.53097620496836162</v>
       </c>
       <c r="B50" s="2">
         <v>151</v>
@@ -3234,7 +3235,7 @@
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8336053115256673</v>
+        <v>3.4487601177043414E-2</v>
       </c>
       <c r="B51" s="2">
         <v>48</v>
@@ -3258,7 +3259,7 @@
     <row r="52" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72154685237168037</v>
+        <v>0.52733855673830277</v>
       </c>
       <c r="B52" s="2">
         <v>286</v>
@@ -3282,7 +3283,7 @@
     <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81618089277386008</v>
+        <v>0.59883242262461633</v>
       </c>
       <c r="B53" s="2">
         <v>275</v>
@@ -3306,7 +3307,7 @@
     <row r="54" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14899979473813763</v>
+        <v>0.96946576478399582</v>
       </c>
       <c r="B54" s="2">
         <v>283</v>
@@ -3327,7 +3328,7 @@
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64950940291250836</v>
+        <v>0.96817615823405001</v>
       </c>
       <c r="B55" s="2">
         <v>121</v>
@@ -3351,7 +3352,7 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40849023188233369</v>
+        <v>0.86919536416629828</v>
       </c>
       <c r="B56" s="2">
         <v>22</v>
@@ -3372,7 +3373,7 @@
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13708985200572477</v>
+        <v>0.12533248893613402</v>
       </c>
       <c r="B57" s="2">
         <v>249</v>
@@ -3399,7 +3400,7 @@
     <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36212223532799126</v>
+        <v>0.70668102389554488</v>
       </c>
       <c r="B58" s="2">
         <v>141</v>
@@ -3426,7 +3427,7 @@
     <row r="59" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.963912194505868E-3</v>
+        <v>0.54134134966712966</v>
       </c>
       <c r="B59" s="2">
         <v>206</v>
@@ -3456,7 +3457,7 @@
     <row r="60" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61703952820525687</v>
+        <v>0.17884637851721341</v>
       </c>
       <c r="B60" s="2">
         <v>55</v>
@@ -3480,7 +3481,7 @@
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99974936982762985</v>
+        <v>0.70137062792886029</v>
       </c>
       <c r="B61" s="2">
         <v>50</v>
@@ -3504,7 +3505,7 @@
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66157008285600127</v>
+        <v>0.99221064675898163</v>
       </c>
       <c r="B62" s="2">
         <v>54</v>
@@ -3528,7 +3529,7 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33437631035426529</v>
+        <v>2.3442239641217832E-2</v>
       </c>
       <c r="B63" s="2">
         <v>162</v>
@@ -3549,7 +3550,7 @@
     <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86097093089702847</v>
+        <v>0.37109744664875055</v>
       </c>
       <c r="B64" s="2">
         <v>250</v>
@@ -3579,7 +3580,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3734711902126975E-2</v>
+        <v>0.78365001746280316</v>
       </c>
       <c r="B65" s="2">
         <v>272</v>
@@ -3603,7 +3604,7 @@
     <row r="66" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.86710905602281074</v>
+        <v>5.5014775636210933E-2</v>
       </c>
       <c r="B66" s="2">
         <v>288</v>
@@ -3627,7 +3628,7 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.727057577822567E-2</v>
+        <v>0.66158940123905907</v>
       </c>
       <c r="B67" s="2">
         <v>104</v>
@@ -3651,7 +3652,7 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87738206018822185</v>
+        <v>7.6699325915529859E-2</v>
       </c>
       <c r="B68" s="2">
         <v>201</v>
@@ -3675,7 +3676,7 @@
     <row r="69" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47609886416476888</v>
+        <v>0.86786314502868578</v>
       </c>
       <c r="B69" s="2">
         <v>56</v>
@@ -3699,7 +3700,7 @@
     <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44886223086524812</v>
+        <v>0.39086888841899459</v>
       </c>
       <c r="B70" s="2">
         <v>153</v>
@@ -3723,7 +3724,7 @@
     <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51710121439290258</v>
+        <v>0.87965691457855211</v>
       </c>
       <c r="B71" s="2">
         <v>36</v>
@@ -3747,7 +3748,7 @@
     <row r="72" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49353554549161816</v>
+        <v>0.70657227722991256</v>
       </c>
       <c r="B72" s="2">
         <v>37</v>
@@ -3771,7 +3772,7 @@
     <row r="73" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28435174405041508</v>
+        <v>0.21896626145076969</v>
       </c>
       <c r="B73" s="2">
         <v>93</v>
@@ -3798,7 +3799,7 @@
     <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46969262665474887</v>
+        <v>0.260976132981382</v>
       </c>
       <c r="B74" s="2">
         <v>214</v>
@@ -3825,7 +3826,7 @@
     <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62945300445306585</v>
+        <v>0.43291868253141275</v>
       </c>
       <c r="B75" s="2">
         <v>25</v>
@@ -3849,7 +3850,7 @@
     <row r="76" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55750597896650911</v>
+        <v>0.92433698192075775</v>
       </c>
       <c r="B76" s="2">
         <v>120</v>
@@ -3879,7 +3880,7 @@
     <row r="77" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22468623406688815</v>
+        <v>2.3344613600063124E-2</v>
       </c>
       <c r="B77" s="2">
         <v>35</v>
@@ -3900,7 +3901,7 @@
     <row r="78" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47348706519670813</v>
+        <v>0.62785702665387744</v>
       </c>
       <c r="B78" s="2">
         <v>15</v>
@@ -3930,7 +3931,7 @@
     <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36427401003634208</v>
+        <v>0.54395904326436451</v>
       </c>
       <c r="B79" s="2">
         <v>32</v>
@@ -3954,7 +3955,7 @@
     <row r="80" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57739392172694926</v>
+        <v>0.79342331742190175</v>
       </c>
       <c r="B80" s="2">
         <v>150</v>
@@ -3978,7 +3979,7 @@
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57902300460513145</v>
+        <v>0.26570085219369355</v>
       </c>
       <c r="B81" s="2">
         <v>117</v>
@@ -4002,7 +4003,7 @@
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82580869243378774</v>
+        <v>0.1654437793118726</v>
       </c>
       <c r="B82" s="2">
         <v>213</v>
@@ -4029,7 +4030,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38995101589240977</v>
+        <v>5.7042192429234695E-2</v>
       </c>
       <c r="B83" s="2">
         <v>127</v>
@@ -4053,7 +4054,7 @@
     <row r="84" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77834430997388293</v>
+        <v>0.69095799679664338</v>
       </c>
       <c r="B84" s="2">
         <v>64</v>
@@ -4077,7 +4078,7 @@
     <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33725446072404375</v>
+        <v>8.6328679148417575E-2</v>
       </c>
       <c r="B85" s="2">
         <v>60</v>
@@ -4104,7 +4105,7 @@
     <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47895993214723998</v>
+        <v>0.84405882715492708</v>
       </c>
       <c r="B86" s="2">
         <v>165</v>
@@ -4128,7 +4129,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.361942410538135E-2</v>
+        <v>0.72302075807468968</v>
       </c>
       <c r="B87" s="2">
         <v>258</v>
@@ -4152,7 +4153,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47376749534535423</v>
+        <v>0.34104125204998692</v>
       </c>
       <c r="B88" s="2">
         <v>6</v>
@@ -4173,7 +4174,7 @@
     <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2829969792587822</v>
+        <v>0.69326663219587081</v>
       </c>
       <c r="B89" s="2">
         <v>195</v>
@@ -4194,7 +4195,7 @@
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69056371858788113</v>
+        <v>0.62810982090116574</v>
       </c>
       <c r="B90" s="2">
         <v>329</v>
@@ -4218,7 +4219,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37181940673102909</v>
+        <v>0.91249616654101418</v>
       </c>
       <c r="B91" s="2">
         <v>116</v>
@@ -4239,7 +4240,7 @@
     <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34492145881319258</v>
+        <v>0.86832947704166275</v>
       </c>
       <c r="B92" s="2">
         <v>132</v>
@@ -4263,7 +4264,7 @@
     <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.476886159485058E-2</v>
+        <v>0.74714489631179126</v>
       </c>
       <c r="B93" s="2">
         <v>10</v>
@@ -4287,7 +4288,7 @@
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57717562285656676</v>
+        <v>0.43029306750904206</v>
       </c>
       <c r="B94" s="2">
         <v>122</v>
@@ -4314,7 +4315,7 @@
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30321832188024112</v>
+        <v>5.0824933552853224E-3</v>
       </c>
       <c r="B95" s="2">
         <v>21</v>
@@ -4338,7 +4339,7 @@
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70870615750566535</v>
+        <v>3.3940154180065463E-2</v>
       </c>
       <c r="B96" s="2">
         <v>211</v>
@@ -4362,7 +4363,7 @@
     <row r="97" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45211836124780236</v>
+        <v>0.91819082387904316</v>
       </c>
       <c r="B97" s="2">
         <v>20</v>
@@ -4383,7 +4384,7 @@
     <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27423482890693596</v>
+        <v>0.28861463450826141</v>
       </c>
       <c r="B98" s="2">
         <v>271</v>
@@ -4404,7 +4405,7 @@
     <row r="99" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33605049481916227</v>
+        <v>0.47146244341583576</v>
       </c>
       <c r="B99" s="2">
         <v>337</v>
@@ -4434,7 +4435,7 @@
     <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40672650174033376</v>
+        <v>0.5780342401922014</v>
       </c>
       <c r="B100" s="2">
         <v>218</v>
@@ -4461,7 +4462,7 @@
     <row r="101" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44118500292015939</v>
+        <v>0.20901357306983581</v>
       </c>
       <c r="B101" s="2">
         <v>170</v>
@@ -4485,7 +4486,7 @@
     <row r="102" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34575839109495921</v>
+        <v>0.59670270465519881</v>
       </c>
       <c r="B102" s="2">
         <v>5</v>
@@ -4509,7 +4510,7 @@
     <row r="103" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75118373304801889</v>
+        <v>0.25166213378464364</v>
       </c>
       <c r="B103" s="2">
         <v>101</v>
@@ -4533,7 +4534,7 @@
     <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8331706930111333E-2</v>
+        <v>0.73151194105918094</v>
       </c>
       <c r="B104" s="2">
         <v>277</v>
@@ -4563,7 +4564,7 @@
     <row r="105" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90257847882161191</v>
+        <v>6.1436456048003518E-2</v>
       </c>
       <c r="B105" s="2">
         <v>270</v>
@@ -4587,7 +4588,7 @@
     <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29275753655878878</v>
+        <v>0.58557055790231938</v>
       </c>
       <c r="B106" s="2">
         <v>74</v>
@@ -4611,7 +4612,7 @@
     <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1663343887368169E-2</v>
+        <v>0.49768182520032112</v>
       </c>
       <c r="B107" s="2">
         <v>137</v>
@@ -4632,7 +4633,7 @@
     <row r="108" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74486780181085432</v>
+        <v>0.75245388503033428</v>
       </c>
       <c r="B108" s="2">
         <v>42</v>
@@ -4656,7 +4657,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83780159975293189</v>
+        <v>0.6740584867417817</v>
       </c>
       <c r="B109" s="2">
         <v>161</v>
@@ -4680,7 +4681,7 @@
     <row r="110" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.17753700478854961</v>
+        <v>0.601792283707963</v>
       </c>
       <c r="B110" s="2">
         <v>316</v>
@@ -4704,7 +4705,7 @@
     <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75411291847983541</v>
+        <v>0.54456309141361781</v>
       </c>
       <c r="B111" s="2">
         <v>152</v>
@@ -4728,7 +4729,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24804301427755449</v>
+        <v>0.80888657677769205</v>
       </c>
       <c r="B112" s="2">
         <v>159</v>
@@ -4752,7 +4753,7 @@
     <row r="113" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.54161740893317845</v>
+        <v>0.22638195398135985</v>
       </c>
       <c r="B113" s="2">
         <v>80</v>
@@ -4776,7 +4777,7 @@
     <row r="114" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71679989455576809</v>
+        <v>0.58466434026306102</v>
       </c>
       <c r="B114" s="2">
         <v>197</v>
@@ -4800,7 +4801,7 @@
     <row r="115" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13935197420945244</v>
+        <v>2.5872790732263229E-2</v>
       </c>
       <c r="B115" s="2">
         <v>114</v>
@@ -4824,7 +4825,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25516790347124552</v>
+        <v>0.72610118188631045</v>
       </c>
       <c r="B116" s="2">
         <v>82</v>
@@ -4848,7 +4849,7 @@
     <row r="117" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.606804568443298</v>
+        <v>0.19499236313945389</v>
       </c>
       <c r="B117" s="2">
         <v>244</v>
@@ -4869,7 +4870,7 @@
     <row r="118" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.425463055814427E-2</v>
+        <v>0.583314528773486</v>
       </c>
       <c r="B118" s="2">
         <v>39</v>
@@ -4893,7 +4894,7 @@
     <row r="119" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98945816487924843</v>
+        <v>0.64583051301728955</v>
       </c>
       <c r="B119" s="2">
         <v>216</v>
@@ -4914,7 +4915,7 @@
     <row r="120" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62587564897150572</v>
+        <v>0.40316036320186244</v>
       </c>
       <c r="B120" s="2">
         <v>176</v>
@@ -4941,7 +4942,7 @@
     <row r="121" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1883783081920738E-3</v>
+        <v>0.70505915807966935</v>
       </c>
       <c r="B121" s="2">
         <v>142</v>
@@ -4968,7 +4969,7 @@
     <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21097949914168979</v>
+        <v>0.17431670018937417</v>
       </c>
       <c r="B122" s="2">
         <v>224</v>
@@ -4992,7 +4993,7 @@
     <row r="123" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32736173750287778</v>
+        <v>0.44925890339055807</v>
       </c>
       <c r="B123" s="2">
         <v>280</v>
@@ -5019,7 +5020,7 @@
     <row r="124" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43368165647017953</v>
+        <v>0.91940754049673457</v>
       </c>
       <c r="B124" s="2">
         <v>61</v>
@@ -5043,7 +5044,7 @@
     <row r="125" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97335442930319616</v>
+        <v>0.47745854804891374</v>
       </c>
       <c r="B125" s="2">
         <v>228</v>
@@ -5067,7 +5068,7 @@
     <row r="126" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4196166939916801E-2</v>
+        <v>0.73628302465556461</v>
       </c>
       <c r="B126" s="2">
         <v>28</v>
@@ -5091,7 +5092,7 @@
     <row r="127" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52311309149218899</v>
+        <v>0.762572814829097</v>
       </c>
       <c r="B127" s="2">
         <v>305</v>
@@ -5115,7 +5116,7 @@
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32598421026971192</v>
+        <v>0.26660941829680584</v>
       </c>
       <c r="B128" s="2">
         <v>281</v>
@@ -5145,7 +5146,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21893204605477057</v>
+        <v>0.23177627482513263</v>
       </c>
       <c r="B129" s="2">
         <v>171</v>
@@ -5169,7 +5170,7 @@
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.4721921383799248</v>
+        <v>0.75315637837533767</v>
       </c>
       <c r="B130" s="2">
         <v>253</v>
@@ -5196,7 +5197,7 @@
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15376226399946658</v>
+        <v>0.88275371815521608</v>
       </c>
       <c r="B131" s="2">
         <v>147</v>
@@ -5217,7 +5218,7 @@
     <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55091159274970269</v>
+        <v>8.6425849052800485E-2</v>
       </c>
       <c r="B132" s="2">
         <v>186</v>
@@ -5241,7 +5242,7 @@
     <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.119152863820288</v>
+        <v>0.38597164521375815</v>
       </c>
       <c r="B133" s="2">
         <v>262</v>
@@ -5268,7 +5269,7 @@
     <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71622158507444111</v>
+        <v>0.84176250911167938</v>
       </c>
       <c r="B134" s="2">
         <v>177</v>
@@ -5295,7 +5296,7 @@
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29435595235772716</v>
+        <v>0.71203154328289331</v>
       </c>
       <c r="B135" s="2">
         <v>190</v>
@@ -5319,7 +5320,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78748844882505997</v>
+        <v>0.12600047997365527</v>
       </c>
       <c r="B136" s="2">
         <v>134</v>
@@ -5340,7 +5341,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58587746254930528</v>
+        <v>0.13963420484745837</v>
       </c>
       <c r="B137" s="2">
         <v>2</v>
@@ -5364,7 +5365,7 @@
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5994283912344263E-2</v>
+        <v>0.3735798514773494</v>
       </c>
       <c r="B138" s="2">
         <v>243</v>
@@ -5388,7 +5389,7 @@
     <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78132833024096537</v>
+        <v>0.65241360748153698</v>
       </c>
       <c r="B139" s="2">
         <v>140</v>
@@ -5415,7 +5416,7 @@
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41320697875696799</v>
+        <v>8.4308370993259607E-2</v>
       </c>
       <c r="B140" s="2">
         <v>72</v>
@@ -5442,7 +5443,7 @@
     <row r="141" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80353831580688129</v>
+        <v>0.18633930357815287</v>
       </c>
       <c r="B141" s="2">
         <v>102</v>
@@ -5463,7 +5464,7 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27461162605084699</v>
+        <v>0.41772329703147981</v>
       </c>
       <c r="B142" s="2">
         <v>168</v>
@@ -5487,7 +5488,7 @@
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30609274195452374</v>
+        <v>0.62426125716475112</v>
       </c>
       <c r="B143" s="2">
         <v>310</v>
@@ -5514,7 +5515,7 @@
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7935892889886369</v>
+        <v>0.71715876802454437</v>
       </c>
       <c r="B144" s="2">
         <v>178</v>
@@ -5535,7 +5536,7 @@
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90248437260939807</v>
+        <v>0.16487168379771067</v>
       </c>
       <c r="B145" s="2">
         <v>81</v>
@@ -5556,7 +5557,7 @@
     <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75522913660690305</v>
+        <v>0.77730797364643645</v>
       </c>
       <c r="B146" s="2">
         <v>266</v>
@@ -5580,7 +5581,7 @@
     <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11057021539000689</v>
+        <v>0.41403654033667137</v>
       </c>
       <c r="B147" s="2">
         <v>236</v>
@@ -5604,7 +5605,7 @@
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11195437034805278</v>
+        <v>1.6890281279037578E-2</v>
       </c>
       <c r="B148" s="2">
         <v>119</v>
@@ -5628,7 +5629,7 @@
     <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85940918281064593</v>
+        <v>0.20503914904542608</v>
       </c>
       <c r="B149" s="2">
         <v>109</v>
@@ -5649,7 +5650,7 @@
     <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42753560867063456</v>
+        <v>0.13612845197470014</v>
       </c>
       <c r="B150" s="2">
         <v>135</v>
@@ -5670,7 +5671,7 @@
     <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45978382399192974</v>
+        <v>0.60584783473721615</v>
       </c>
       <c r="B151" s="2">
         <v>242</v>
@@ -5697,7 +5698,7 @@
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2688083412043607</v>
+        <v>0.91042078592139974</v>
       </c>
       <c r="B152" s="2">
         <v>291</v>
@@ -5721,7 +5722,7 @@
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30006909881225163</v>
+        <v>0.70031241639841824</v>
       </c>
       <c r="B153" s="2">
         <v>108</v>
@@ -5745,7 +5746,7 @@
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94957605114536525</v>
+        <v>0.64762691014501428</v>
       </c>
       <c r="B154" s="2">
         <v>295</v>
@@ -5766,7 +5767,7 @@
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56560334675033419</v>
+        <v>0.20355740536989808</v>
       </c>
       <c r="B155" s="2">
         <v>183</v>
@@ -5787,7 +5788,7 @@
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4653854029683777E-2</v>
+        <v>0.82980426048652844</v>
       </c>
       <c r="B156" s="2">
         <v>252</v>
@@ -5814,7 +5815,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28838811489515848</v>
+        <v>0.8450682745711926</v>
       </c>
       <c r="B157" s="2">
         <v>193</v>
@@ -5838,7 +5839,7 @@
     <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59743170339400842</v>
+        <v>0.52299655526696209</v>
       </c>
       <c r="B158" s="2">
         <v>166</v>
@@ -5862,7 +5863,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90495577680610673</v>
+        <v>0.59459219151129261</v>
       </c>
       <c r="B159" s="2">
         <v>62</v>
@@ -5886,7 +5887,7 @@
     <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2684700495126815</v>
+        <v>0.46761222656666701</v>
       </c>
       <c r="B160" s="2">
         <v>333</v>
@@ -5913,7 +5914,7 @@
     <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13225912737140877</v>
+        <v>2.3669191739186024E-2</v>
       </c>
       <c r="B161" s="2">
         <v>53</v>
@@ -5940,7 +5941,7 @@
     <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22225417174921402</v>
+        <v>0.67042312741772159</v>
       </c>
       <c r="B162" s="2">
         <v>325</v>
@@ -5967,7 +5968,7 @@
     <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30562552864397086</v>
+        <v>0.1309705278656158</v>
       </c>
       <c r="B163" s="2">
         <v>30</v>
@@ -5991,7 +5992,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69324396572004088</v>
+        <v>0.4463069651375331</v>
       </c>
       <c r="B164" s="2">
         <v>106</v>
@@ -6012,7 +6013,7 @@
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15538350192878625</v>
+        <v>7.5147477611650415E-2</v>
       </c>
       <c r="B165" s="2">
         <v>312</v>
@@ -6036,7 +6037,7 @@
     <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67594825310797269</v>
+        <v>0.60927575124740763</v>
       </c>
       <c r="B166" s="2">
         <v>296</v>
@@ -6063,7 +6064,7 @@
     <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.1856767194926507E-2</v>
+        <v>0.46963708147116434</v>
       </c>
       <c r="B167" s="2">
         <v>45</v>
@@ -6087,7 +6088,7 @@
     <row r="168" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68709174637239667</v>
+        <v>6.678716995763434E-2</v>
       </c>
       <c r="B168" s="2">
         <v>194</v>
@@ -6108,7 +6109,7 @@
     <row r="169" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82819269576908427</v>
+        <v>0.61734927689236851</v>
       </c>
       <c r="B169" s="2">
         <v>92</v>
@@ -6132,7 +6133,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7314677907217868</v>
+        <v>0.75356361484621615</v>
       </c>
       <c r="B170" s="2">
         <v>97</v>
@@ -6153,7 +6154,7 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55847389327774877</v>
+        <v>0.98992512159361934</v>
       </c>
       <c r="B171" s="2">
         <v>129</v>
@@ -6180,7 +6181,7 @@
     <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39923047795855249</v>
+        <v>0.50369099466808931</v>
       </c>
       <c r="B172" s="2">
         <v>146</v>
@@ -6201,7 +6202,7 @@
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33405667907532666</v>
+        <v>0.38670874825524748</v>
       </c>
       <c r="B173" s="2">
         <v>27</v>
@@ -6225,7 +6226,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57224670850576242</v>
+        <v>0.8983567181171187</v>
       </c>
       <c r="B174" s="2">
         <v>322</v>
@@ -6246,7 +6247,7 @@
     <row r="175" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24604172182883433</v>
+        <v>0.23392957646145818</v>
       </c>
       <c r="B175" s="2">
         <v>334</v>
@@ -6270,7 +6271,7 @@
     <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65344048003662003</v>
+        <v>0.32714719761125022</v>
       </c>
       <c r="B176" s="2">
         <v>59</v>
@@ -6297,7 +6298,7 @@
     <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49395524720379025</v>
+        <v>0.97369171778787411</v>
       </c>
       <c r="B177" s="2">
         <v>71</v>
@@ -6321,7 +6322,7 @@
     <row r="178" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20050307129737566</v>
+        <v>0.81340437294181533</v>
       </c>
       <c r="B178" s="2">
         <v>11</v>
@@ -6345,7 +6346,7 @@
     <row r="179" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58633019798272834</v>
+        <v>0.19254009264136751</v>
       </c>
       <c r="B179" s="2">
         <v>182</v>
@@ -6369,7 +6370,7 @@
     <row r="180" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62322604836279138</v>
+        <v>0.88662879927137139</v>
       </c>
       <c r="B180" s="2">
         <v>184</v>
@@ -6390,7 +6391,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15935667252789465</v>
+        <v>0.96073262865269771</v>
       </c>
       <c r="B181" s="2">
         <v>231</v>
@@ -6414,7 +6415,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6956018028924378E-2</v>
+        <v>0.32011842530282075</v>
       </c>
       <c r="B182" s="2">
         <v>233</v>
@@ -6435,7 +6436,7 @@
     <row r="183" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71436446344053361</v>
+        <v>0.82669899882208764</v>
       </c>
       <c r="B183" s="2">
         <v>282</v>
@@ -6459,7 +6460,7 @@
     <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73327220605985022</v>
+        <v>0.53452677665622639</v>
       </c>
       <c r="B184" s="2">
         <v>69</v>
@@ -6483,7 +6484,7 @@
     <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8788348973853759</v>
+        <v>0.44902019343627186</v>
       </c>
       <c r="B185" s="2">
         <v>301</v>
@@ -6504,7 +6505,7 @@
     <row r="186" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1714005376929455</v>
+        <v>0.63117044722232452</v>
       </c>
       <c r="B186" s="2">
         <v>14</v>
@@ -6525,7 +6526,7 @@
     <row r="187" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74398315780286306</v>
+        <v>0.63701252623472149</v>
       </c>
       <c r="B187" s="2">
         <v>221</v>
@@ -6549,7 +6550,7 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34330514526747535</v>
+        <v>2.1823728192839509E-2</v>
       </c>
       <c r="B188" s="2">
         <v>98</v>
@@ -6573,7 +6574,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18420849500631253</v>
+        <v>0.16211199438670154</v>
       </c>
       <c r="B189" s="2">
         <v>167</v>
@@ -6597,7 +6598,7 @@
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63997123427893454</v>
+        <v>0.28650316609974091</v>
       </c>
       <c r="B190" s="2">
         <v>24</v>
@@ -6618,7 +6619,7 @@
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2552259631320799</v>
+        <v>0.39395184192020893</v>
       </c>
       <c r="B191" s="2">
         <v>309</v>
@@ -6645,7 +6646,7 @@
     <row r="192" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34755193428679354</v>
+        <v>0.39439931647286919</v>
       </c>
       <c r="B192" s="2">
         <v>269</v>
@@ -6672,7 +6673,7 @@
     <row r="193" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41660272338105497</v>
+        <v>0.14991469964368731</v>
       </c>
       <c r="B193" s="2">
         <v>17</v>
@@ -6696,7 +6697,7 @@
     <row r="194" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.42222090625265563</v>
+        <v>0.79110088163485315</v>
       </c>
       <c r="B194" s="2">
         <v>43</v>
@@ -6717,7 +6718,7 @@
     <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73263992192678229</v>
+        <v>0.35544398631830088</v>
       </c>
       <c r="B195" s="2">
         <v>293</v>
@@ -6744,7 +6745,7 @@
     <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55784280437834888</v>
+        <v>0.93170442992855307</v>
       </c>
       <c r="B196" s="2">
         <v>227</v>
@@ -6771,7 +6772,7 @@
     <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67738569266349413</v>
+        <v>0.9684946886258522</v>
       </c>
       <c r="B197" s="2">
         <v>237</v>
@@ -6798,7 +6799,7 @@
     <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4510738774293159E-2</v>
+        <v>0.93077930373238238</v>
       </c>
       <c r="B198" s="2">
         <v>180</v>
@@ -6822,7 +6823,7 @@
     <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57437310226767757</v>
+        <v>0.36097393540619593</v>
       </c>
       <c r="B199" s="2">
         <v>188</v>
@@ -6843,7 +6844,7 @@
     <row r="200" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71447692932778128</v>
+        <v>0.62823725392995011</v>
       </c>
       <c r="B200" s="2">
         <v>204</v>
@@ -6870,7 +6871,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95951934373105408</v>
+        <v>0.60464512607699594</v>
       </c>
       <c r="B201" s="2">
         <v>115</v>
@@ -6894,7 +6895,7 @@
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85056724511270965</v>
+        <v>0.37704697375661334</v>
       </c>
       <c r="B202" s="2">
         <v>323</v>
@@ -6915,7 +6916,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34478049046546178</v>
+        <v>9.0530093054180916E-2</v>
       </c>
       <c r="B203" s="2">
         <v>175</v>
@@ -6939,7 +6940,7 @@
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59127749218034253</v>
+        <v>1.5285733030120929E-2</v>
       </c>
       <c r="B204" s="2">
         <v>306</v>
@@ -6963,7 +6964,7 @@
     <row r="205" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13557917045866175</v>
+        <v>0.74781129199140051</v>
       </c>
       <c r="B205" s="2">
         <v>156</v>
@@ -6987,7 +6988,7 @@
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35407108189979397</v>
+        <v>0.70702951437726635</v>
       </c>
       <c r="B206" s="2">
         <v>179</v>
@@ -7011,7 +7012,7 @@
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40169562409256554</v>
+        <v>0.45452513713171538</v>
       </c>
       <c r="B207" s="2">
         <v>67</v>
@@ -7035,7 +7036,7 @@
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6165151961386734E-2</v>
+        <v>0.93056845020938428</v>
       </c>
       <c r="B208" s="2">
         <v>245</v>
@@ -7059,7 +7060,7 @@
     <row r="209" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43756345965496601</v>
+        <v>0.80754423785145368</v>
       </c>
       <c r="B209" s="2">
         <v>196</v>
@@ -7083,7 +7084,7 @@
     <row r="210" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29685048289222371</v>
+        <v>0.80255190750567273</v>
       </c>
       <c r="B210" s="2">
         <v>149</v>
@@ -7104,7 +7105,7 @@
     <row r="211" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22659106200819357</v>
+        <v>0.79628958692025109</v>
       </c>
       <c r="B211" s="2">
         <v>125</v>
@@ -7128,7 +7129,7 @@
     <row r="212" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16718722404356723</v>
+        <v>0.62937484462505344</v>
       </c>
       <c r="B212" s="2">
         <v>49</v>
@@ -7152,7 +7153,7 @@
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21296375591788952</v>
+        <v>0.74226027539578132</v>
       </c>
       <c r="B213" s="2">
         <v>160</v>
@@ -7173,7 +7174,7 @@
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73978706574130737</v>
+        <v>0.53850610845542246</v>
       </c>
       <c r="B214" s="2">
         <v>290</v>
@@ -7194,7 +7195,7 @@
     <row r="215" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87675993354327508</v>
+        <v>0.48193552792616035</v>
       </c>
       <c r="B215" s="2">
         <v>19</v>
@@ -7218,7 +7219,7 @@
     <row r="216" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5274205219043443</v>
+        <v>0.87538440130910811</v>
       </c>
       <c r="B216" s="2">
         <v>91</v>
@@ -7239,7 +7240,7 @@
     <row r="217" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58963982781130964</v>
+        <v>0.57811290732497522</v>
       </c>
       <c r="B217" s="2">
         <v>256</v>
@@ -7263,7 +7264,7 @@
     <row r="218" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5404235734360574</v>
+        <v>0.56891663784295698</v>
       </c>
       <c r="B218" s="2">
         <v>133</v>
@@ -7290,7 +7291,7 @@
     <row r="219" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22658505260079775</v>
+        <v>0.53803671603569425</v>
       </c>
       <c r="B219" s="2">
         <v>225</v>
@@ -7317,7 +7318,7 @@
     <row r="220" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54768562432337864</v>
+        <v>0.5300528508520318</v>
       </c>
       <c r="B220" s="2">
         <v>284</v>
@@ -7338,7 +7339,7 @@
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75482793341333465</v>
+        <v>0.33138565800206043</v>
       </c>
       <c r="B221" s="2">
         <v>200</v>
@@ -7359,7 +7360,7 @@
     <row r="222" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83765096227994817</v>
+        <v>0.24210363317120986</v>
       </c>
       <c r="B222" s="2">
         <v>205</v>
@@ -7389,7 +7390,7 @@
     <row r="223" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15266158399382823</v>
+        <v>0.45324475279880627</v>
       </c>
       <c r="B223" s="2">
         <v>230</v>
@@ -7422,7 +7423,7 @@
     <row r="224" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51951478670660844</v>
+        <v>0.64893873957901937</v>
       </c>
       <c r="B224" s="2">
         <v>264</v>
@@ -7446,7 +7447,7 @@
     <row r="225" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32513221161837302</v>
+        <v>0.37593230121998045</v>
       </c>
       <c r="B225" s="2">
         <v>285</v>
@@ -7467,7 +7468,7 @@
     <row r="226" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.52445927548769922</v>
+        <v>0.47172427005977446</v>
       </c>
       <c r="B226" s="2">
         <v>327</v>
@@ -7494,7 +7495,7 @@
     <row r="227" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96158025173118378</v>
+        <v>0.81577028025102638</v>
       </c>
       <c r="B227" s="2">
         <v>254</v>
@@ -7518,7 +7519,7 @@
     <row r="228" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40831925177612693</v>
+        <v>0.99711418090881576</v>
       </c>
       <c r="B228" s="2">
         <v>320</v>
@@ -7548,7 +7549,7 @@
     <row r="229" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19963392691225368</v>
+        <v>0.97565342824285994</v>
       </c>
       <c r="B229" s="2">
         <v>65</v>
@@ -7575,7 +7576,7 @@
     <row r="230" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78285337365272845</v>
+        <v>0.59445069118897953</v>
       </c>
       <c r="B230" s="2">
         <v>148</v>
@@ -7596,7 +7597,7 @@
     <row r="231" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96858218326458967</v>
+        <v>0.23254360758290604</v>
       </c>
       <c r="B231" s="2">
         <v>198</v>
@@ -7626,7 +7627,7 @@
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77758094601936489</v>
+        <v>0.2924205875621565</v>
       </c>
       <c r="B232" s="2">
         <v>174</v>
@@ -7653,7 +7654,7 @@
     <row r="233" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24650235233624795</v>
+        <v>0.7843925771307283</v>
       </c>
       <c r="B233" s="2">
         <v>274</v>
@@ -7680,7 +7681,7 @@
     <row r="234" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97423403693939037</v>
+        <v>0.27038931869095983</v>
       </c>
       <c r="B234" s="2">
         <v>38</v>
@@ -7704,7 +7705,7 @@
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34509695790848316</v>
+        <v>0.7568334094475444</v>
       </c>
       <c r="B235" s="2">
         <v>234</v>
@@ -7731,7 +7732,7 @@
     <row r="236" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42223102270462642</v>
+        <v>0.58588369840425669</v>
       </c>
       <c r="B236" s="2">
         <v>317</v>
@@ -7755,7 +7756,7 @@
     <row r="237" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69321470583820255</v>
+        <v>0.8519372636332877</v>
       </c>
       <c r="B237" s="2">
         <v>99</v>
@@ -7779,7 +7780,7 @@
     <row r="238" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78449201478622266</v>
+        <v>0.25810715231433234</v>
       </c>
       <c r="B238" s="2">
         <v>163</v>
@@ -7803,7 +7804,7 @@
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41680729003942119</v>
+        <v>9.0327456397992889E-2</v>
       </c>
       <c r="B239" s="2">
         <v>202</v>
@@ -7824,7 +7825,7 @@
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32383150894943658</v>
+        <v>0.32898854725302185</v>
       </c>
       <c r="B240" s="2">
         <v>83</v>
@@ -7845,7 +7846,7 @@
     <row r="241" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91281609952607135</v>
+        <v>1.2588513225413434E-2</v>
       </c>
       <c r="B241" s="2">
         <v>58</v>
@@ -7866,7 +7867,7 @@
     <row r="242" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36292611745340086</v>
+        <v>0.74337262427462014</v>
       </c>
       <c r="B242" s="2">
         <v>187</v>
@@ -7887,7 +7888,7 @@
     <row r="243" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41791812250943661</v>
+        <v>0.21953458445508545</v>
       </c>
       <c r="B243" s="2">
         <v>12</v>
@@ -7914,7 +7915,7 @@
     <row r="244" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20510274336105971</v>
+        <v>0.72051528712029511</v>
       </c>
       <c r="B244" s="2">
         <v>100</v>
@@ -7941,7 +7942,7 @@
     <row r="245" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69642366379742904</v>
+        <v>0.4716132137438005</v>
       </c>
       <c r="B245" s="2">
         <v>298</v>
@@ -7968,7 +7969,7 @@
     <row r="246" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86897530585064875</v>
+        <v>0.53942750813828477</v>
       </c>
       <c r="B246" s="2">
         <v>287</v>
@@ -7992,7 +7993,7 @@
     <row r="247" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70478732116359866</v>
+        <v>0.24093025207310192</v>
       </c>
       <c r="B247" s="2">
         <v>113</v>
@@ -8019,7 +8020,7 @@
     <row r="248" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24170374994693644</v>
+        <v>0.49242622063993158</v>
       </c>
       <c r="B248" s="2">
         <v>189</v>
@@ -8046,7 +8047,7 @@
     <row r="249" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16395999045202259</v>
+        <v>0.68275609494922351</v>
       </c>
       <c r="B249" s="2">
         <v>241</v>
@@ -8070,7 +8071,7 @@
     <row r="250" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45035586296765673</v>
+        <v>0.70817617697756663</v>
       </c>
       <c r="B250" s="2">
         <v>144</v>
@@ -8091,7 +8092,7 @@
     <row r="251" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41809808840803431</v>
+        <v>0.91186662462301737</v>
       </c>
       <c r="B251" s="2">
         <v>212</v>
@@ -8121,7 +8122,7 @@
     <row r="252" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12097333503166108</v>
+        <v>0.39968711002578461</v>
       </c>
       <c r="B252" s="2">
         <v>222</v>
@@ -8148,7 +8149,7 @@
     <row r="253" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.1523975985418478E-2</v>
+        <v>0.15316833295570342</v>
       </c>
       <c r="B253" s="2">
         <v>155</v>
@@ -8172,7 +8173,7 @@
     <row r="254" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73807918342244672</v>
+        <v>0.72873248151862957</v>
       </c>
       <c r="B254" s="2">
         <v>276</v>
@@ -8196,7 +8197,7 @@
     <row r="255" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30610241818956518</v>
+        <v>0.32166003322615133</v>
       </c>
       <c r="B255" s="2">
         <v>44</v>
@@ -8220,7 +8221,7 @@
     <row r="256" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80477388262367033</v>
+        <v>0.40680279030451461</v>
       </c>
       <c r="B256" s="2">
         <v>336</v>
@@ -8244,7 +8245,7 @@
     <row r="257" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79741806565496764</v>
+        <v>0.91880316660886674</v>
       </c>
       <c r="B257" s="2">
         <v>240</v>
@@ -8268,7 +8269,7 @@
     <row r="258" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A321" ca="1" si="4">RAND()</f>
-        <v>0.75372325907160964</v>
+        <v>0.682547825711324</v>
       </c>
       <c r="B258" s="2">
         <v>319</v>
@@ -8295,7 +8296,7 @@
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72863278243624452</v>
+        <v>0.60107284306998587</v>
       </c>
       <c r="B259" s="2">
         <v>105</v>
@@ -8316,7 +8317,7 @@
     <row r="260" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61595589466595568</v>
+        <v>0.88198002688117605</v>
       </c>
       <c r="B260" s="2">
         <v>303</v>
@@ -8340,7 +8341,7 @@
     <row r="261" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40328172813019791</v>
+        <v>0.37015656494234284</v>
       </c>
       <c r="B261" s="2">
         <v>207</v>
@@ -8367,7 +8368,7 @@
     <row r="262" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32060469986728124</v>
+        <v>0.85553834024348241</v>
       </c>
       <c r="B262" s="2">
         <v>203</v>
@@ -8388,7 +8389,7 @@
     <row r="263" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29503756817769278</v>
+        <v>3.8885898736156443E-2</v>
       </c>
       <c r="B263" s="2">
         <v>299</v>
@@ -8409,7 +8410,7 @@
     <row r="264" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66688157843123286</v>
+        <v>0.75444859889693239</v>
       </c>
       <c r="B264" s="2">
         <v>208</v>
@@ -8433,7 +8434,7 @@
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76311549533312339</v>
+        <v>0.76102329565197979</v>
       </c>
       <c r="B265" s="2">
         <v>130</v>
@@ -8457,7 +8458,7 @@
     <row r="266" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28141761797159959</v>
+        <v>0.76126510694677807</v>
       </c>
       <c r="B266" s="2">
         <v>255</v>
@@ -8481,7 +8482,7 @@
     <row r="267" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27972699777222676</v>
+        <v>6.6539498988064438E-2</v>
       </c>
       <c r="B267" s="2">
         <v>76</v>
@@ -8505,7 +8506,7 @@
     <row r="268" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89021448530261926</v>
+        <v>0.33283715203248321</v>
       </c>
       <c r="B268" s="2">
         <v>73</v>
@@ -8529,7 +8530,7 @@
     <row r="269" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43136315428478689</v>
+        <v>0.99063635989996479</v>
       </c>
       <c r="B269" s="2">
         <v>267</v>
@@ -8553,7 +8554,7 @@
     <row r="270" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40939258865946437</v>
+        <v>0.64023618985650199</v>
       </c>
       <c r="B270" s="2">
         <v>123</v>
@@ -8577,7 +8578,7 @@
     <row r="271" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51108014882713815</v>
+        <v>0.65791906322366545</v>
       </c>
       <c r="B271" s="2">
         <v>13</v>
@@ -8607,7 +8608,7 @@
     <row r="272" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65643133212044646</v>
+        <v>0.56518385935075277</v>
       </c>
       <c r="B272" s="2">
         <v>223</v>
@@ -8634,7 +8635,7 @@
     <row r="273" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96460260278277798</v>
+        <v>7.9200649544669766E-2</v>
       </c>
       <c r="B273" s="2">
         <v>9</v>
@@ -8655,7 +8656,7 @@
     <row r="274" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81797549121274304</v>
+        <v>0.20962061607733395</v>
       </c>
       <c r="B274" s="2">
         <v>66</v>
@@ -8682,7 +8683,7 @@
     <row r="275" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4818874272961513E-2</v>
+        <v>0.75843443786371778</v>
       </c>
       <c r="B275" s="2">
         <v>124</v>
@@ -8712,7 +8713,7 @@
     <row r="276" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8515961248859578E-2</v>
+        <v>0.19680804942264596</v>
       </c>
       <c r="B276" s="2">
         <v>313</v>
@@ -8739,7 +8740,7 @@
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53184691676390772</v>
+        <v>0.90385859385158041</v>
       </c>
       <c r="B277" s="2">
         <v>232</v>
@@ -8763,7 +8764,7 @@
     <row r="278" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34856625299505295</v>
+        <v>0.88722534035851808</v>
       </c>
       <c r="B278" s="2">
         <v>87</v>
@@ -8787,7 +8788,7 @@
     <row r="279" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51549060632807187</v>
+        <v>0.87063351813214895</v>
       </c>
       <c r="B279" s="2">
         <v>118</v>
@@ -8808,7 +8809,7 @@
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2064096014350123</v>
+        <v>0.30164004822934709</v>
       </c>
       <c r="B280" s="2">
         <v>172</v>
@@ -8832,7 +8833,7 @@
     <row r="281" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69164488311729977</v>
+        <v>0.18861432358459684</v>
       </c>
       <c r="B281" s="2">
         <v>278</v>
@@ -8859,7 +8860,7 @@
     <row r="282" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21885266901361078</v>
+        <v>0.83212372204188723</v>
       </c>
       <c r="B282" s="2">
         <v>318</v>
@@ -8898,7 +8899,7 @@
     <row r="283" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49788387644070609</v>
+        <v>0.53594398630691198</v>
       </c>
       <c r="B283" s="2">
         <v>145</v>
@@ -8919,7 +8920,7 @@
     <row r="284" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74094734260550565</v>
+        <v>0.15402014158705013</v>
       </c>
       <c r="B284" s="2">
         <v>308</v>
@@ -8943,7 +8944,7 @@
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.7662685339009655</v>
+        <v>0.55740261772373301</v>
       </c>
       <c r="B285" s="2">
         <v>215</v>
@@ -8967,7 +8968,7 @@
     <row r="286" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93546097013026852</v>
+        <v>0.55219899329048061</v>
       </c>
       <c r="B286" s="2">
         <v>78</v>
@@ -8991,7 +8992,7 @@
     <row r="287" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82970650709600835</v>
+        <v>0.81511855328702809</v>
       </c>
       <c r="B287" s="2">
         <v>79</v>
@@ -9015,7 +9016,7 @@
     <row r="288" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68889995094525369</v>
+        <v>6.3867161210465428E-2</v>
       </c>
       <c r="B288" s="2">
         <v>86</v>
@@ -9039,7 +9040,7 @@
     <row r="289" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44965490929822827</v>
+        <v>0.30036660604291476</v>
       </c>
       <c r="B289" s="2">
         <v>131</v>
@@ -9063,7 +9064,7 @@
     <row r="290" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12193703688271817</v>
+        <v>1.589069917872199E-2</v>
       </c>
       <c r="B290" s="2">
         <v>3</v>
@@ -9087,7 +9088,7 @@
     <row r="291" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81321061313332588</v>
+        <v>0.23194156440537272</v>
       </c>
       <c r="B291" s="2">
         <v>335</v>
@@ -9108,7 +9109,7 @@
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1901560210060222E-2</v>
+        <v>0.16671673609800874</v>
       </c>
       <c r="B292" s="2">
         <v>110</v>
@@ -9135,7 +9136,7 @@
     <row r="293" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32401000523497914</v>
+        <v>0.20161384683195516</v>
       </c>
       <c r="B293" s="2">
         <v>181</v>
@@ -9159,7 +9160,7 @@
     <row r="294" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70269396034957365</v>
+        <v>0.84652801736437788</v>
       </c>
       <c r="B294" s="2">
         <v>139</v>
@@ -9180,7 +9181,7 @@
     <row r="295" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3499848587082695E-2</v>
+        <v>0.64361956683377641</v>
       </c>
       <c r="B295" s="2">
         <v>248</v>
@@ -9201,7 +9202,7 @@
     <row r="296" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18550807682319537</v>
+        <v>0.39380376868882505</v>
       </c>
       <c r="B296" s="2">
         <v>263</v>
@@ -9225,7 +9226,7 @@
     <row r="297" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97873235693044225</v>
+        <v>0.18627257135855479</v>
       </c>
       <c r="B297" s="2">
         <v>219</v>
@@ -9249,7 +9250,7 @@
     <row r="298" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77592741848286695</v>
+        <v>0.69977347201185269</v>
       </c>
       <c r="B298" s="2">
         <v>40</v>
@@ -9273,7 +9274,7 @@
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82915032362194219</v>
+        <v>0.88423099639513192</v>
       </c>
       <c r="B299" s="2">
         <v>173</v>
@@ -9297,7 +9298,7 @@
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9427764425987433E-2</v>
+        <v>0.59500333498345492</v>
       </c>
       <c r="B300" s="2">
         <v>315</v>
@@ -9318,7 +9319,7 @@
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84021129676728368</v>
+        <v>1.2857018544806142E-2</v>
       </c>
       <c r="B301" s="2">
         <v>239</v>
@@ -9339,7 +9340,7 @@
     <row r="302" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15153329032233165</v>
+        <v>0.63802406569279657</v>
       </c>
       <c r="B302" s="2">
         <v>328</v>
@@ -9363,7 +9364,7 @@
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89485000762001887</v>
+        <v>8.2761489950264333E-2</v>
       </c>
       <c r="B303" s="2">
         <v>220</v>
@@ -9387,7 +9388,7 @@
     <row r="304" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22139530111429906</v>
+        <v>0.79287697017737946</v>
       </c>
       <c r="B304" s="2">
         <v>90</v>
@@ -9417,7 +9418,7 @@
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4852787319360266E-2</v>
+        <v>0.62640198094127941</v>
       </c>
       <c r="B305" s="2">
         <v>136</v>
@@ -9441,7 +9442,7 @@
     <row r="306" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30680961148616626</v>
+        <v>8.1278816754601468E-2</v>
       </c>
       <c r="B306" s="2">
         <v>1</v>
@@ -9462,7 +9463,7 @@
     <row r="307" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6393295522299445E-2</v>
+        <v>9.9787612691692562E-2</v>
       </c>
       <c r="B307" s="2">
         <v>210</v>
@@ -9489,7 +9490,7 @@
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93291911070428368</v>
+        <v>0.63505420425617898</v>
       </c>
       <c r="B308" s="2">
         <v>259</v>
@@ -9513,7 +9514,7 @@
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54645401606013422</v>
+        <v>0.43792891596699324</v>
       </c>
       <c r="B309" s="2">
         <v>260</v>
@@ -9540,7 +9541,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36728423896566242</v>
+        <v>0.15898501756692274</v>
       </c>
       <c r="B310" s="2">
         <v>235</v>
@@ -9564,7 +9565,7 @@
     <row r="311" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55655151819194915</v>
+        <v>0.95212169827506965</v>
       </c>
       <c r="B311" s="2">
         <v>16</v>
@@ -9588,7 +9589,7 @@
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56117911682130628</v>
+        <v>9.946238470853741E-3</v>
       </c>
       <c r="B312" s="2">
         <v>85</v>
@@ -9609,7 +9610,7 @@
     <row r="313" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8598561205654134E-2</v>
+        <v>0.99720032620676891</v>
       </c>
       <c r="B313" s="2">
         <v>307</v>
@@ -9630,7 +9631,7 @@
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0434607225204293E-2</v>
+        <v>0.9675953124335771</v>
       </c>
       <c r="B314" s="2">
         <v>209</v>
@@ -9657,7 +9658,7 @@
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75586679101515353</v>
+        <v>0.32031670893629427</v>
       </c>
       <c r="B315" s="2">
         <v>34</v>
@@ -9681,7 +9682,7 @@
     <row r="316" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74790033755856822</v>
+        <v>8.9105977165603312E-3</v>
       </c>
       <c r="B316" s="2">
         <v>29</v>
@@ -9705,7 +9706,7 @@
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73699612114031221</v>
+        <v>1.5927079494122087E-2</v>
       </c>
       <c r="B317" s="2">
         <v>192</v>
@@ -9726,7 +9727,7 @@
     <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21140877161316907</v>
+        <v>0.51983432060604828</v>
       </c>
       <c r="B318" s="2">
         <v>33</v>
@@ -9750,7 +9751,7 @@
     <row r="319" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>3.330169409782413E-2</v>
+        <v>6.2603651074619626E-2</v>
       </c>
       <c r="B319" s="2">
         <v>41</v>
@@ -9774,7 +9775,7 @@
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9382483217039489</v>
+        <v>0.14813616169537736</v>
       </c>
       <c r="B320" s="2">
         <v>158</v>
@@ -9798,7 +9799,7 @@
     <row r="321" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71830329332529541</v>
+        <v>0.86215313236770053</v>
       </c>
       <c r="B321" s="2">
         <v>112</v>
@@ -9822,7 +9823,7 @@
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" ref="A322:A338" ca="1" si="5">RAND()</f>
-        <v>0.39936111854606804</v>
+        <v>0.88848030379144161</v>
       </c>
       <c r="B322" s="2">
         <v>23</v>
@@ -9846,7 +9847,7 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85410543077134637</v>
+        <v>0.2134206877674425</v>
       </c>
       <c r="B323" s="2">
         <v>304</v>
@@ -9870,7 +9871,7 @@
     <row r="324" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7220364917560746E-2</v>
+        <v>0.31188697696854928</v>
       </c>
       <c r="B324" s="2">
         <v>154</v>
@@ -9894,7 +9895,7 @@
     <row r="325" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75575425533596963</v>
+        <v>0.35183289772159843</v>
       </c>
       <c r="B325" s="2">
         <v>89</v>
@@ -9918,7 +9919,7 @@
     <row r="326" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27226362697237505</v>
+        <v>0.37230301738863847</v>
       </c>
       <c r="B326" s="2">
         <v>247</v>
@@ -9939,7 +9940,7 @@
     <row r="327" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64108498144569936</v>
+        <v>0.24861521699194122</v>
       </c>
       <c r="B327" s="2">
         <v>47</v>
@@ -9963,7 +9964,7 @@
     <row r="328" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23605723317651273</v>
+        <v>0.40699099891353574</v>
       </c>
       <c r="B328" s="2">
         <v>57</v>
@@ -9987,7 +9988,7 @@
     <row r="329" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46992307723905258</v>
+        <v>0.85738962198456459</v>
       </c>
       <c r="B329" s="2">
         <v>111</v>
@@ -10011,7 +10012,7 @@
     <row r="330" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6863555837339731</v>
+        <v>0.68980189287945126</v>
       </c>
       <c r="B330" s="2">
         <v>261</v>
@@ -10035,7 +10036,7 @@
     <row r="331" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89103793575226298</v>
+        <v>0.57362530894454822</v>
       </c>
       <c r="B331" s="2">
         <v>88</v>
@@ -10059,7 +10060,7 @@
     <row r="332" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76698820563807546</v>
+        <v>0.56003783092196502</v>
       </c>
       <c r="B332" s="2">
         <v>330</v>
@@ -10083,7 +10084,7 @@
     <row r="333" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78213828067118607</v>
+        <v>0.47406772968329269</v>
       </c>
       <c r="B333" s="2">
         <v>46</v>
@@ -10107,7 +10108,7 @@
     <row r="334" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44630084703370154</v>
+        <v>0.57061249328815411</v>
       </c>
       <c r="B334" s="2">
         <v>273</v>
@@ -10131,7 +10132,7 @@
     <row r="335" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35589607395390044</v>
+        <v>0.33769799979674009</v>
       </c>
       <c r="B335" s="2">
         <v>26</v>
@@ -10152,7 +10153,7 @@
     <row r="336" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88781206225821319</v>
+        <v>0.33805257430291702</v>
       </c>
       <c r="B336" s="2">
         <v>52</v>
@@ -10176,7 +10177,7 @@
     <row r="337" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41777195016172097</v>
+        <v>0.76778053203000385</v>
       </c>
       <c r="B337" s="2">
         <v>311</v>
@@ -10206,7 +10207,7 @@
     <row r="338" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93071087459975343</v>
+        <v>0.9482656477284046</v>
       </c>
       <c r="B338" s="2">
         <v>246</v>
@@ -10455,7 +10456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+    <sheetView topLeftCell="A319" workbookViewId="0">
       <selection activeCell="F342" sqref="F342"/>
     </sheetView>
   </sheetViews>
